--- a/biology/Botanique/Claude_Blanchet_(poire)/Claude_Blanchet_(poire).xlsx
+++ b/biology/Botanique/Claude_Blanchet_(poire)/Claude_Blanchet_(poire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Claude Blanchet est une variété de poire[1] populaire au Japon, où elle est appelée « La France » (ラ・フランス)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Claude Blanchet est une variété de poire populaire au Japon, où elle est appelée « La France » (ラ・フランス).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Inventée par le français Claude Blanchet en 1864, cette variété eut peu de succès en Europe, en raison d'un climat défavorable.
 Importée par le Ministère de l'Agriculture et du Commerce du Japon en 1903, elle devient populaire dans l'archipel où elle est toujours l'une des variétés de poires les plus consommées.
